--- a/biology/Médecine/Dystrophie_maculaire_vitelliforme_de_Best/Dystrophie_maculaire_vitelliforme_de_Best.xlsx
+++ b/biology/Médecine/Dystrophie_maculaire_vitelliforme_de_Best/Dystrophie_maculaire_vitelliforme_de_Best.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dystrophie maculaire vitelliforme de Best (DMVB) ou maladie de Best est une maladie génétique oculaire à transmission autosomique dominante. Elle conduit à une dystrophie progressive de la macula, débutant soit dans l'enfance ou dans l'adolescence. La vision est normale puis il existe une baisse de l'acuité visuelle centrale et une perturbation de la perception des images qui sont vues déformées (métamorphopsie). La vision périphérique reste normale et il n'existe pas de trouble de la vision nocturne. La perte de vision est très variable.
 Cette maladie est distincte de la dystrophie fovéomaculaire vitelliforme de l'adulte ou « pseudo-maladie de Best ».
@@ -512,7 +524,9 @@
           <t>Noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le terme « vitelliforme » signifie en forme de jaune d’œuf.
 Autres noms
@@ -544,7 +558,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Accumulation de matériel sous l’épithélium pigmentaire (EP)
 Mutation du gène VMD2 (en) 607854 situé sur le chromosome 11 codant la bestrophine-1</t>
@@ -575,7 +591,9 @@
           <t>Incidence &amp; prévalence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Maladie rare dont l'incidence est inconnue.
 </t>
@@ -608,8 +626,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Évolution
-Le pronostic est relativement bon avec une vision qui ne baisse vraiment qu’après 40 ans. La plupart des patients peuvent lire toute leur vie avec un œil.
+          <t>Évolution</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le pronostic est relativement bon avec une vision qui ne baisse vraiment qu’après 40 ans. La plupart des patients peuvent lire toute leur vie avec un œil.
 Stade pré-vitelliforme ou du porteur sain :
 Macula normale ;
 Altérations de l’électrooculogramme (EOG) ;
@@ -655,8 +678,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Diagnostic positif
-Diagnostic entre l’âge de 7 et 14 ans
+          <t>Diagnostic positif</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Diagnostic entre l’âge de 7 et 14 ans
 Présence d’une lésion polymorphe typique au fond d'œil
 Transmission héréditaire dominante
 Électrooculogramme altéré
@@ -675,9 +703,43 @@
 EOG
 Les troubles sont systématiques avec élévation du rapport d'Arden.
 Vision des couleurs
-On met en évidence un axe bleu-jaune, deutan.
-Diagnostic différentiel
-Choriorétinopathie séreuse centrale (CRSC) surtout dans les formes avec décollement de l'épithélium pigmentaire (DEP)
+On met en évidence un axe bleu-jaune, deutan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dystrophie_maculaire_vitelliforme_de_Best</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dystrophie_maculaire_vitelliforme_de_Best</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Diagnostic différentiel</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Choriorétinopathie séreuse centrale (CRSC) surtout dans les formes avec décollement de l'épithélium pigmentaire (DEP)
 Dystrophie pseudo-vitelliforme de l’adulte (pattern dystrophie)
 Maladie de Stargardt
 Télangiectasies fovéolaires périrétiniennes
@@ -686,31 +748,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Dystrophie_maculaire_vitelliforme_de_Best</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dystrophie_maculaire_vitelliforme_de_Best</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dystrophie_maculaire_vitelliforme_de_Best</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dystrophie_maculaire_vitelliforme_de_Best</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Il n’en existe pas.
 Le patient nécessite pourtant une surveillance régulière :
@@ -722,37 +786,6 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Dystrophie_maculaire_vitelliforme_de_Best</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dystrophie_maculaire_vitelliforme_de_Best</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Conseil génétique</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Transmission autosomique dominante
-L'expressivité est très variable : on découvre chez l’un des parents, qui a une bonne vision, des lésions qui étaient inconnues alors que leur enfant a déjà des lésions avancées.</t>
-        </is>
-      </c>
-    </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
@@ -774,13 +807,48 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Conseil génétique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Transmission autosomique dominante
+L'expressivité est très variable : on découvre chez l’un des parents, qui a une bonne vision, des lésions qui étaient inconnues alors que leur enfant a déjà des lésions avancées.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dystrophie_maculaire_vitelliforme_de_Best</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dystrophie_maculaire_vitelliforme_de_Best</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:153700 [1]
-(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [2]
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:153700 
+(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine                     </t>
         </is>
       </c>
